--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1011.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1011.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205666124337139</v>
+        <v>1.26020348072052</v>
       </c>
       <c r="B1">
-        <v>3.068230677754573</v>
+        <v>1.628110766410828</v>
       </c>
       <c r="C1">
-        <v>4.070175841407515</v>
+        <v>2.340687036514282</v>
       </c>
       <c r="D1">
-        <v>2.13127615312847</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.003564501648365</v>
+        <v>1.358235955238342</v>
       </c>
     </row>
   </sheetData>
